--- a/db.xlsx
+++ b/db.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="crtTask" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="taskInput" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="95">
   <si>
     <t>#task - cong viec</t>
   </si>
@@ -250,6 +250,57 @@
   </si>
   <si>
     <t>end_date</t>
+  </si>
+  <si>
+    <t>#dbschema</t>
+  </si>
+  <si>
+    <t>#inputPanel</t>
+  </si>
+  <si>
+    <t>taskInputPanel</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>dict</t>
+  </si>
+  <si>
+    <t>#menu</t>
+  </si>
+  <si>
+    <t>#inputF</t>
+  </si>
+  <si>
+    <t>lTaskInputF</t>
+  </si>
+  <si>
+    <t>miInput</t>
+  </si>
+  <si>
+    <t>miTask</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>order_number</t>
+  </si>
+  <si>
+    <t>task-order</t>
+  </si>
+  <si>
+    <t>lOrderInpuF</t>
   </si>
 </sst>
 </file>
@@ -305,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -313,11 +364,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -330,6 +461,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,6 +1474,82 @@
       <c r="B9" t="s">
         <v>71</v>
       </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1343,12 +1558,160 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="15"/>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="14"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="15"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db.xlsx
+++ b/db.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="crtTask" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="taskInput" sheetId="3" r:id="rId3"/>
+    <sheet name="taskInput" sheetId="3" r:id="rId2"/>
+    <sheet name="orderInput" sheetId="4" r:id="rId3"/>
+    <sheet name="res" sheetId="5" r:id="rId4"/>
+    <sheet name="search" sheetId="6" r:id="rId5"/>
+    <sheet name="NOTE" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="198">
   <si>
     <t>#task - cong viec</t>
   </si>
@@ -117,9 +120,6 @@
     <t>number</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
     <t>requesting</t>
   </si>
   <si>
@@ -297,10 +297,322 @@
     <t>order_number</t>
   </si>
   <si>
-    <t>task-order</t>
-  </si>
-  <si>
     <t>lOrderInpuF</t>
+  </si>
+  <si>
+    <t>order_type</t>
+  </si>
+  <si>
+    <t>(số lượng)</t>
+  </si>
+  <si>
+    <t>(ghi chú)</t>
+  </si>
+  <si>
+    <t>lOrderDataPanel</t>
+  </si>
+  <si>
+    <t>order_status</t>
+  </si>
+  <si>
+    <t>lOrderSearchPanel</t>
+  </si>
+  <si>
+    <t>lOrderPanel</t>
+  </si>
+  <si>
+    <t>lOrderReport</t>
+  </si>
+  <si>
+    <t>#lDataSync</t>
+  </si>
+  <si>
+    <t>Refresh()</t>
+  </si>
+  <si>
+    <t>col[1]</t>
+  </si>
+  <si>
+    <t>zero base</t>
+  </si>
+  <si>
+    <t>lOrderTblInfo</t>
+  </si>
+  <si>
+    <t>order_tbl</t>
+  </si>
+  <si>
+    <t>#form1</t>
+  </si>
+  <si>
+    <t>appConfig.s_config.m_panels</t>
+  </si>
+  <si>
+    <t>miOrder</t>
+  </si>
+  <si>
+    <t>lAdvanceStatus</t>
+  </si>
+  <si>
+    <t>lOrderStatus</t>
+  </si>
+  <si>
+    <t>(đang xin phép)</t>
+  </si>
+  <si>
+    <t>( đã chấp nhận)</t>
+  </si>
+  <si>
+    <t>order-status</t>
+  </si>
+  <si>
+    <t>status - col type map</t>
+  </si>
+  <si>
+    <t>resource list</t>
+  </si>
+  <si>
+    <t>res_xxx</t>
+  </si>
+  <si>
+    <t>res_yyy</t>
+  </si>
+  <si>
+    <t>order-resource</t>
+  </si>
+  <si>
+    <t>order_xxx_1</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>nhan su</t>
+  </si>
+  <si>
+    <t>cong viec</t>
+  </si>
+  <si>
+    <t>cv_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>#human</t>
+  </si>
+  <si>
+    <t>human_id</t>
+  </si>
+  <si>
+    <t>#equipment</t>
+  </si>
+  <si>
+    <t>ordertype change</t>
+  </si>
+  <si>
+    <t>EditingCompleted</t>
+  </si>
+  <si>
+    <t>data content</t>
+  </si>
+  <si>
+    <t>lDataContent dc = appConfig.s_contentProvider.CreateDataContent("human");</t>
+  </si>
+  <si>
+    <t>human_number</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>(0:nam,1 nu)</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>lEquipmentDataPanel</t>
+  </si>
+  <si>
+    <t>lHumanDataPanel</t>
+  </si>
+  <si>
+    <t>lEquipmentSearchPanel</t>
+  </si>
+  <si>
+    <t>lHumanSearchPanel</t>
+  </si>
+  <si>
+    <t>lEquipmentReport</t>
+  </si>
+  <si>
+    <t>lHumanReport</t>
+  </si>
+  <si>
+    <t>lHumanPanel</t>
+  </si>
+  <si>
+    <t>lEquipmentPanel</t>
+  </si>
+  <si>
+    <t>lHumanTblInfo</t>
+  </si>
+  <si>
+    <t>lEquipmentTblInfo</t>
+  </si>
+  <si>
+    <t>lOrderType</t>
+  </si>
+  <si>
+    <t>lConfigMng.parseEnum</t>
+  </si>
+  <si>
+    <t>lApproveInputF</t>
+  </si>
+  <si>
+    <t>lApproveInputPanel</t>
+  </si>
+  <si>
+    <t>miApprove</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>remain</t>
+  </si>
+  <si>
+    <t>nếu số lượng thiết bị request &gt; số thiết bị hiện có</t>
+  </si>
+  <si>
+    <t>"=&gt;reject yêu cẩu?</t>
+  </si>
+  <si>
+    <t>ban quản lý mua thêm và approve?</t>
+  </si>
+  <si>
+    <t>tổng số</t>
+  </si>
+  <si>
+    <t>số lượng còn lại</t>
+  </si>
+  <si>
+    <t>tìm kiếm công việc đã approve</t>
+  </si>
+  <si>
+    <t>ngay vao</t>
+  </si>
+  <si>
+    <t>ngay ra</t>
+  </si>
+  <si>
+    <t>search cu si o chua tu ngay xxx toi yyy</t>
+  </si>
+  <si>
+    <t>ngay vao = xxx and ngay ra = yyy</t>
+  </si>
+  <si>
+    <t>search cu si vao chua tu ngay xxx</t>
+  </si>
+  <si>
+    <t>ngay vao &gt;= xxx</t>
+  </si>
+  <si>
+    <t>search cu si o chua toi ngay yyy</t>
+  </si>
+  <si>
+    <t>ngay ra &gt;= yyy</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>(còn lại)</t>
+  </si>
+  <si>
+    <t>công việc có order bị reject -&gt;cần sửa lại yêu cầu?</t>
+  </si>
+  <si>
+    <t>mã CV</t>
+  </si>
+  <si>
+    <t>(tự sinh)</t>
+  </si>
+  <si>
+    <t>thuộc ban</t>
+  </si>
+  <si>
+    <t>nội dung</t>
+  </si>
+  <si>
+    <t>ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>ngày kết thúc</t>
+  </si>
+  <si>
+    <t>ghi chú</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>tìm nhân sự cho công việc</t>
+  </si>
+  <si>
+    <t>tìm thiết bị cho công việc (vd: công việc cần lọai ô tô tải)</t>
+  </si>
+  <si>
+    <t>loại TB</t>
+  </si>
+  <si>
+    <t>Ô tô tải</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>(biển số)</t>
+  </si>
+  <si>
+    <t>#car</t>
+  </si>
+  <si>
+    <t>(4 chỗ, 8 chỗ)</t>
+  </si>
+  <si>
+    <t>toyota</t>
+  </si>
+  <si>
+    <t>car_number</t>
+  </si>
+  <si>
+    <t>car_type</t>
+  </si>
+  <si>
+    <t>CarTblInfo</t>
+  </si>
+  <si>
+    <t>#order_car(1-n)</t>
   </si>
 </sst>
 </file>
@@ -324,7 +636,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,8 +667,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -444,11 +774,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -469,6 +851,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,6 +886,208 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangular Callout 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315074" y="38099"/>
+          <a:ext cx="1400175" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -72534"/>
+            <a:gd name="adj2" fmla="val 37803"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>update "resource list" by "order_type"</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangular Callout 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924050" y="2457450"/>
+          <a:ext cx="1400175" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -44643"/>
+            <a:gd name="adj2" fmla="val -110298"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>when delete order</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> -&gt;delete relate order-resource records</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangular Callout 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="1466850"/>
+          <a:ext cx="1800225" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -73895"/>
+            <a:gd name="adj2" fmla="val -77387"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>"down":</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> add resource to order</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>"up": release resource from order</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -770,16 +1377,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
@@ -787,19 +1394,20 @@
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -807,10 +1415,10 @@
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -818,10 +1426,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -830,7 +1438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -841,10 +1449,10 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -853,7 +1461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -864,10 +1472,10 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -876,7 +1484,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -887,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -896,7 +1504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -907,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -916,7 +1524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -927,22 +1535,22 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I9" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -965,13 +1573,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
       <c r="I11" s="2" t="s">
         <v>27</v>
       </c>
@@ -991,24 +1596,30 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>91</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>7</v>
@@ -1017,7 +1628,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1027,6 +1638,9 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
       <c r="I14" s="5" t="s">
         <v>8</v>
       </c>
@@ -1040,10 +1654,13 @@
         <v>10</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I15" s="2">
         <v>1</v>
       </c>
@@ -1054,15 +1671,24 @@
         <v>28</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>106</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1071,22 +1697,31 @@
         <v>27</v>
       </c>
       <c r="K16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
       <c r="I17">
         <v>3</v>
       </c>
@@ -1094,16 +1729,19 @@
         <v>27</v>
       </c>
       <c r="K17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R17" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1113,17 +1751,26 @@
       <c r="D18" t="s">
         <v>31</v>
       </c>
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
       <c r="I18" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
       <c r="I19" s="5" t="s">
         <v>9</v>
       </c>
@@ -1134,71 +1781,101 @@
         <v>32</v>
       </c>
       <c r="L19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R19" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
       <c r="I20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I21" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
+      <c r="F23" t="s">
+        <v>135</v>
+      </c>
       <c r="H23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>16</v>
+      </c>
       <c r="I24" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" t="s">
+        <v>75</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>8</v>
@@ -1207,43 +1884,45 @@
         <v>9</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="I28" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="2"/>
       <c r="I29" s="5" t="s">
         <v>8</v>
       </c>
@@ -1251,15 +1930,12 @@
         <v>9</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2">
@@ -1269,36 +1945,34 @@
         <v>28</v>
       </c>
       <c r="K30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1312,10 +1986,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1343,6 +2014,8 @@
       <c r="C35" t="s">
         <v>2</v>
       </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2">
         <v>1</v>
@@ -1354,15 +2027,15 @@
         <v>28</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -1375,13 +2048,13 @@
         <v>27</v>
       </c>
       <c r="K36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -1392,13 +2065,140 @@
         <v>27</v>
       </c>
       <c r="K37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L37" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>59</v>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>190</v>
+      </c>
+      <c r="F50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>192</v>
+      </c>
+      <c r="F51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>193</v>
+      </c>
+      <c r="F52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -1409,147 +2209,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>94</v>
-      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1558,158 +2333,894 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I14"/>
+  <dimension ref="A2:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="19" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="G4" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="15"/>
-      <c r="F3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="2"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="15"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="G10" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="G11" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="14"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="2"/>
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="15"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="I22" s="39"/>
+      <c r="J22" s="42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="G24" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="35"/>
+      <c r="D27" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="G30" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="35"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="G31" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J31" s="13"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="15"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+      <c r="C33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="15"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="15"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="15"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="15"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="18"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="E53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db.xlsx
+++ b/db.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
     <sheet name="refine" sheetId="4" r:id="rId2"/>
     <sheet name="org-task" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="bài giảng" sheetId="5" r:id="rId4"/>
+    <sheet name="pg bài giảng" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -149,8 +151,125 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1 - sư phụ
+2 - sư ông
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>1 - phật từ
+2 - chư tăng
+3 - cu si tap tu xuat gia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>nghi lễ
+nhân quả</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>minh long hà nội</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kinh mi tiên câu 1 danh sắc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>1 - 
+2 - 
+3 - bình thường
+4 - tốt
+5 - rất tốt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>(count from lecture table?)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="283">
   <si>
     <t>warehouse</t>
   </si>
@@ -608,9 +727,6 @@
     <t>task_name</t>
   </si>
   <si>
-    <t>monk</t>
-  </si>
-  <si>
     <t>僧侶</t>
   </si>
   <si>
@@ -635,12 +751,6 @@
     <t>section_number</t>
   </si>
   <si>
-    <t>monk_number</t>
-  </si>
-  <si>
-    <t>monk_name</t>
-  </si>
-  <si>
     <t>chức năng nhiêm vụ</t>
   </si>
   <si>
@@ -885,6 +995,129 @@
   </si>
   <si>
     <t>so sanh</t>
+  </si>
+  <si>
+    <t>bhikkhu</t>
+  </si>
+  <si>
+    <t>samon</t>
+  </si>
+  <si>
+    <t>samon_number</t>
+  </si>
+  <si>
+    <t>samon_name</t>
+  </si>
+  <si>
+    <t>superior</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>auto increment</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>?job</t>
+  </si>
+  <si>
+    <t>thông tin đạo tràng</t>
+  </si>
+  <si>
+    <t>chủ đề 1</t>
+  </si>
+  <si>
+    <t>tên tài liệu</t>
+  </si>
+  <si>
+    <t>chư tăng</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>đạo tràng 2</t>
+  </si>
+  <si>
+    <t>chủ đề 2</t>
+  </si>
+  <si>
+    <t>đạo tràng 3</t>
+  </si>
+  <si>
+    <t>chủ đề 3</t>
+  </si>
+  <si>
+    <t>câu 1</t>
+  </si>
+  <si>
+    <t>đạo tràng 4</t>
+  </si>
+  <si>
+    <t>chủ đề 4</t>
+  </si>
+  <si>
+    <t>đạo tràng 5</t>
+  </si>
+  <si>
+    <t>chủ đề 5</t>
+  </si>
+  <si>
+    <t>đạo tràng 6</t>
+  </si>
+  <si>
+    <t>lịch sử giảng dạy</t>
+  </si>
+  <si>
+    <t>đạo tràng 7</t>
+  </si>
+  <si>
+    <t>ngày</t>
+  </si>
+  <si>
+    <t>câu hỏi</t>
+  </si>
+  <si>
+    <t>đạo tràng 8</t>
+  </si>
+  <si>
+    <t>đạo tràng 9</t>
+  </si>
+  <si>
+    <t>đạo tràng 10</t>
+  </si>
+  <si>
+    <t>đạo tràng 11</t>
+  </si>
+  <si>
+    <t>lecture</t>
+  </si>
+  <si>
+    <t>lecture_number</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>created_date</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
 </sst>
 </file>
@@ -954,7 +1187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -971,11 +1204,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -985,6 +1326,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1356,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AS60"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="F31" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,7 +1728,7 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1716,18 +2076,18 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H31" t="s">
         <v>133</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -1735,13 +2095,13 @@
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>133</v>
@@ -1753,7 +2113,7 @@
         <v>147</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>2</v>
@@ -1762,16 +2122,16 @@
         <v>29</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>133</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
@@ -1779,10 +2139,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1791,22 +2151,22 @@
         <v>9</v>
       </c>
       <c r="I33" t="s">
+        <v>174</v>
+      </c>
+      <c r="J33" t="s">
+        <v>175</v>
+      </c>
+      <c r="M33" t="s">
+        <v>173</v>
+      </c>
+      <c r="N33" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q33" t="s">
         <v>177</v>
       </c>
-      <c r="J33" t="s">
+      <c r="R33" t="s">
         <v>178</v>
-      </c>
-      <c r="M33" t="s">
-        <v>176</v>
-      </c>
-      <c r="N33" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>180</v>
-      </c>
-      <c r="R33" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
@@ -1814,34 +2174,34 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D34" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
+        <v>181</v>
+      </c>
+      <c r="I34" t="s">
+        <v>182</v>
+      </c>
+      <c r="J34" t="s">
+        <v>183</v>
+      </c>
+      <c r="M34" t="s">
+        <v>180</v>
+      </c>
+      <c r="N34" t="s">
         <v>184</v>
       </c>
-      <c r="I34" t="s">
+      <c r="Q34" t="s">
         <v>185</v>
       </c>
-      <c r="J34" t="s">
+      <c r="R34" t="s">
         <v>186</v>
-      </c>
-      <c r="M34" t="s">
-        <v>183</v>
-      </c>
-      <c r="N34" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>188</v>
-      </c>
-      <c r="R34" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
@@ -1849,34 +2209,34 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
       <c r="H35" t="s">
+        <v>189</v>
+      </c>
+      <c r="I35" t="s">
+        <v>190</v>
+      </c>
+      <c r="J35" t="s">
+        <v>191</v>
+      </c>
+      <c r="M35" t="s">
+        <v>188</v>
+      </c>
+      <c r="N35" t="s">
         <v>192</v>
       </c>
-      <c r="I35" t="s">
+      <c r="Q35" t="s">
         <v>193</v>
       </c>
-      <c r="J35" t="s">
+      <c r="R35" t="s">
         <v>194</v>
-      </c>
-      <c r="M35" t="s">
-        <v>191</v>
-      </c>
-      <c r="N35" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>196</v>
-      </c>
-      <c r="R35" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
@@ -1884,10 +2244,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D36" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -1896,28 +2256,28 @@
         <v>9</v>
       </c>
       <c r="H36" t="s">
+        <v>197</v>
+      </c>
+      <c r="I36" t="s">
+        <v>198</v>
+      </c>
+      <c r="J36" t="s">
+        <v>199</v>
+      </c>
+      <c r="M36" t="s">
+        <v>196</v>
+      </c>
+      <c r="N36" t="s">
         <v>200</v>
-      </c>
-      <c r="I36" t="s">
-        <v>201</v>
-      </c>
-      <c r="J36" t="s">
-        <v>202</v>
-      </c>
-      <c r="M36" t="s">
-        <v>199</v>
-      </c>
-      <c r="N36" t="s">
-        <v>203</v>
       </c>
       <c r="P36" t="s">
         <v>9</v>
       </c>
       <c r="Q36" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="R36" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
@@ -1925,10 +2285,10 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D37" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -1937,28 +2297,28 @@
         <v>9</v>
       </c>
       <c r="H37" t="s">
+        <v>205</v>
+      </c>
+      <c r="I37" t="s">
+        <v>206</v>
+      </c>
+      <c r="J37" t="s">
+        <v>207</v>
+      </c>
+      <c r="M37" t="s">
+        <v>204</v>
+      </c>
+      <c r="N37" t="s">
         <v>208</v>
-      </c>
-      <c r="I37" t="s">
-        <v>209</v>
-      </c>
-      <c r="J37" t="s">
-        <v>210</v>
-      </c>
-      <c r="M37" t="s">
-        <v>207</v>
-      </c>
-      <c r="N37" t="s">
-        <v>211</v>
       </c>
       <c r="P37" t="s">
         <v>9</v>
       </c>
       <c r="Q37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="R37" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
@@ -1966,31 +2326,31 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D38" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E38">
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M38" t="s">
+        <v>212</v>
+      </c>
+      <c r="N38" t="s">
+        <v>213</v>
+      </c>
+      <c r="P38" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>214</v>
+      </c>
+      <c r="R38" t="s">
         <v>215</v>
-      </c>
-      <c r="N38" t="s">
-        <v>216</v>
-      </c>
-      <c r="P38" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>217</v>
-      </c>
-      <c r="R38" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
@@ -1998,16 +2358,16 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E39">
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>2</v>
@@ -2016,47 +2376,47 @@
         <v>147</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M39" t="s">
+        <v>217</v>
+      </c>
+      <c r="N39" t="s">
+        <v>218</v>
+      </c>
+      <c r="P39" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>219</v>
+      </c>
+      <c r="R39" t="s">
         <v>220</v>
-      </c>
-      <c r="N39" t="s">
-        <v>221</v>
-      </c>
-      <c r="P39" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>222</v>
-      </c>
-      <c r="R39" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I40" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J40" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
+        <v>223</v>
+      </c>
+      <c r="I41" t="s">
+        <v>224</v>
+      </c>
+      <c r="J41" t="s">
+        <v>225</v>
+      </c>
+      <c r="M41" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="I41" t="s">
-        <v>227</v>
-      </c>
-      <c r="J41" t="s">
-        <v>228</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -2080,13 +2440,13 @@
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q43" t="s">
         <v>109</v>
       </c>
       <c r="R43" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
@@ -2114,7 +2474,7 @@
         <v>29</v>
       </c>
       <c r="N44" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q44" t="s">
         <v>16</v>
@@ -2128,7 +2488,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F45" t="s">
         <v>31</v>
@@ -2137,13 +2497,13 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K45" t="s">
         <v>109</v>
       </c>
       <c r="M45" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N45" t="s">
         <v>125</v>
@@ -2152,15 +2512,15 @@
         <v>126</v>
       </c>
       <c r="R45" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -2169,39 +2529,39 @@
         <v>147</v>
       </c>
       <c r="I46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K46" t="s">
         <v>112</v>
       </c>
       <c r="M46" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="N46" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q46" t="s">
         <v>114</v>
       </c>
       <c r="R46" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D47" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F47" t="s">
         <v>31</v>
       </c>
       <c r="H47" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I47" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K47" t="s">
         <v>114</v>
@@ -2209,7 +2569,7 @@
     </row>
     <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:45" x14ac:dyDescent="0.25">
@@ -2798,10 +3158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2833,7 +3193,107 @@
     <col min="40" max="40" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11.85546875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2843,15 +3303,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
@@ -2864,6 +3324,9 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F3" s="8" t="s">
+        <v>242</v>
+      </c>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -2872,10 +3335,10 @@
       </c>
       <c r="C4" s="7"/>
       <c r="F4" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>153</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>135</v>
@@ -2894,7 +3357,7 @@
         <v>140</v>
       </c>
       <c r="F5" t="s">
-        <v>161</v>
+        <v>244</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -2906,7 +3369,7 @@
         <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>162</v>
+        <v>245</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -2921,7 +3384,7 @@
         <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -2934,10 +3397,10 @@
       </c>
       <c r="C9" s="7"/>
       <c r="F9" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>133</v>
@@ -2956,7 +3419,7 @@
         <v>140</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" t="s">
@@ -2977,7 +3440,7 @@
         <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -2992,19 +3455,19 @@
         <v>144</v>
       </c>
       <c r="F12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D13" t="s">
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>150</v>
@@ -3023,7 +3486,7 @@
         <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G14" s="6"/>
       <c r="I14" t="s">
@@ -3038,13 +3501,13 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G15" s="6"/>
       <c r="I15" t="s">
@@ -3059,16 +3522,16 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -3086,6 +3549,1445 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AR16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9:S9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="11.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="13"/>
+    <col min="6" max="6" width="11.5703125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="13" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="13"/>
+    <col min="16" max="16" width="14.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.140625" style="13"/>
+    <col min="21" max="21" width="3.85546875" style="13" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" style="13" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" style="13" customWidth="1"/>
+    <col min="27" max="27" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="9.140625" style="13"/>
+    <col min="30" max="30" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.42578125" style="13" customWidth="1"/>
+    <col min="32" max="33" width="9.140625" style="13"/>
+    <col min="34" max="34" width="12.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="12.140625" style="13" customWidth="1"/>
+    <col min="38" max="39" width="9.140625" style="13"/>
+    <col min="40" max="40" width="12.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.85546875" style="13" customWidth="1"/>
+    <col min="42" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO2" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK3" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ3" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" s="3">
+        <v>43100</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="S4" s="13">
+        <v>160</v>
+      </c>
+      <c r="V4" s="13">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>43100</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK4" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP4" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="G5" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="3">
+        <v>43100</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="S5" s="13">
+        <v>100</v>
+      </c>
+      <c r="V5" s="13">
+        <v>2</v>
+      </c>
+      <c r="W5" s="3">
+        <v>43101</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y5" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA5" s="13">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD5" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE5" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH5" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ5" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK5" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP5" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z8" s="12"/>
+      <c r="AD8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH9" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI9" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK9" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP9" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AR9" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="G10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="W10" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH10" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI10" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK10" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR10" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="L11" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>123</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI11" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK11" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP11" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR11" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="L12" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="L13" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="L14" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="G15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="G16" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AG26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE9" sqref="AE9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="2.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="3" style="13" customWidth="1"/>
+    <col min="4" max="5" width="2.5703125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="13" customWidth="1"/>
+    <col min="7" max="12" width="9.140625" style="13"/>
+    <col min="13" max="13" width="3.85546875" style="13" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="13" customWidth="1"/>
+    <col min="15" max="15" width="2.85546875" style="13" customWidth="1"/>
+    <col min="16" max="18" width="9.140625" style="13"/>
+    <col min="19" max="19" width="11.140625" style="13" customWidth="1"/>
+    <col min="20" max="25" width="9.140625" style="13"/>
+    <col min="26" max="26" width="3.85546875" style="13" customWidth="1"/>
+    <col min="27" max="28" width="9.140625" style="13"/>
+    <col min="29" max="29" width="10.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C1" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="D2" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="E3" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="F4" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="15"/>
+      <c r="M6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="15"/>
+      <c r="Z6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="15"/>
+    </row>
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="6"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="6"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="6"/>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="6"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="6"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="AD8" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE8" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG8" s="6"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="6"/>
+      <c r="M9" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="O9" s="20"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="6"/>
+      <c r="Z9" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA9" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="6"/>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="6"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="6"/>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="6"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="O11" s="21"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="6"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="6"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="6"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="6"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="6"/>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="6"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="6"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="6"/>
+    </row>
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="6"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="R14" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="S14" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="T14" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="U14" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="V14" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="W14" s="6"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="6"/>
+    </row>
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="6"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="6"/>
+    </row>
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="6"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="6"/>
+    </row>
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="6"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="6"/>
+    </row>
+    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="6"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="6"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="6"/>
+      <c r="M19" s="18"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="6"/>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="6"/>
+      <c r="M20" s="18"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="6"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="6"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="6"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="6"/>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="6"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="6"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="6"/>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="6"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="6"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="6"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B24" s="18"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="6"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="6"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="6"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="6"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="6"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="6"/>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="24"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="23"/>
+      <c r="AB26" s="23"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/db.xlsx
+++ b/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,8 @@
     <sheet name="org-task" sheetId="2" r:id="rId3"/>
     <sheet name="bài giảng" sheetId="5" r:id="rId4"/>
     <sheet name="pg bài giảng" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="pg tài sản" sheetId="7" r:id="rId6"/>
+    <sheet name="trip" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -157,6 +158,85 @@
     <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="K23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>1 - còn trống
+2 - đầy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1 - bình thường
+2 - </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>bhikkhu
+僧侶</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>(?division)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
     <comment ref="I3" authorId="0">
       <text>
         <r>
@@ -189,7 +269,82 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP3" authorId="0">
+    <comment ref="B7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>buddhistGroup</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0">
+      <text/>
+    </comment>
+    <comment ref="C9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>minh long hà nội</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kinh mi tiên câu 1 danh sắc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>(count from lecture table?)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1 - sư phụ
+2 - sư ông
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +359,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0">
+    <comment ref="B28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">awakening
+traning
+course
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -214,11 +385,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>minh long hà nội</t>
+          <t>ref: topic table</t>
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0">
+    <comment ref="B34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -228,11 +399,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>kinh mi tiên câu 1 danh sắc</t>
+          <t>samon_number?</t>
         </r>
       </text>
     </comment>
-    <comment ref="W9" authorId="0">
+    <comment ref="C35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +421,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="T11" authorId="0">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +441,49 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>(count from lecture table?)</t>
+          <t>lectPage</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>trainingTab</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DocPage</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>link youtube or file.mp4</t>
         </r>
       </text>
     </comment>
@@ -269,7 +492,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="346">
   <si>
     <t>warehouse</t>
   </si>
@@ -727,9 +950,6 @@
     <t>task_name</t>
   </si>
   <si>
-    <t>僧侶</t>
-  </si>
-  <si>
     <t>section</t>
   </si>
   <si>
@@ -988,18 +1208,9 @@
     <t>tai san - thiet bi</t>
   </si>
   <si>
-    <t>(?division)</t>
-  </si>
-  <si>
     <t>(?regs)</t>
   </si>
   <si>
-    <t>so sanh</t>
-  </si>
-  <si>
-    <t>bhikkhu</t>
-  </si>
-  <si>
     <t>samon</t>
   </si>
   <si>
@@ -1118,13 +1329,264 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>trưởng</t>
+  </si>
+  <si>
+    <t>phó 1</t>
+  </si>
+  <si>
+    <t>phó 2</t>
+  </si>
+  <si>
+    <t>mng</t>
+  </si>
+  <si>
+    <t>assmng2</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>topic.name</t>
+  </si>
+  <si>
+    <t>tpdt - tp : 1-1?</t>
+  </si>
+  <si>
+    <t>so sánh</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>traning_number</t>
+  </si>
+  <si>
+    <t>budgrp</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>budgrp_number</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>char(255)</t>
+  </si>
+  <si>
+    <t>trn_xxx</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>budgrp_name</t>
+  </si>
+  <si>
+    <t>BG2019001</t>
+  </si>
+  <si>
+    <t>topic_number</t>
+  </si>
+  <si>
+    <t>trainer</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>ext</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>char(</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>char(63)</t>
+  </si>
+  <si>
+    <t>document_number</t>
+  </si>
+  <si>
+    <t>DOC_yyyy001</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>store_number</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>asset_number</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>store_name</t>
+  </si>
+  <si>
+    <t>store_status</t>
+  </si>
+  <si>
+    <t>asset_name</t>
+  </si>
+  <si>
+    <t>asset_status</t>
+  </si>
+  <si>
+    <t>cố định</t>
+  </si>
+  <si>
+    <t>lưu động</t>
+  </si>
+  <si>
+    <t>cố định/lưu động</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>ref: group_name</t>
+  </si>
+  <si>
+    <t>kho chua</t>
+  </si>
+  <si>
+    <t>dao trang</t>
+  </si>
+  <si>
+    <t>truong</t>
+  </si>
+  <si>
+    <t>pho</t>
+  </si>
+  <si>
+    <t>dia chi</t>
+  </si>
+  <si>
+    <t>minh long tây tựu</t>
+  </si>
+  <si>
+    <t>nguyen van a</t>
+  </si>
+  <si>
+    <t>nguyen van b</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>tay tu, ha noi</t>
+  </si>
+  <si>
+    <t>Gia Lâm, Hanoi, Vietnam</t>
+  </si>
+  <si>
+    <t>21.0047043,105.9104362</t>
+  </si>
+  <si>
+    <t>21.0693317,105.7243966</t>
+  </si>
+  <si>
+    <t>dia diem</t>
+  </si>
+  <si>
+    <t>20.9941419,105.8663298</t>
+  </si>
+  <si>
+    <t>Mai Động, Hai Bà Trưng, Hà Nội, Vietnam</t>
+  </si>
+  <si>
+    <t>tim</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>chuc vu</t>
+  </si>
+  <si>
+    <t>sdt</t>
+  </si>
+  <si>
+    <t>Công tác</t>
+  </si>
+  <si>
+    <t>Gia Lâm, Hà Nội</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1154,8 +1616,36 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1183,6 +1673,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,7 +1812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1345,12 +1841,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7F7F7F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1419,6 +1925,90 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21336000" y="145676"/>
+          <a:ext cx="2835088" cy="2005853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7F7F7F">
+            <a:alpha val="50196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>giảm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> bớt</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="3600">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1716,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AS60"/>
   <sheetViews>
-    <sheetView topLeftCell="F31" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,7 +2318,7 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -2076,18 +2666,18 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H31" t="s">
         <v>133</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -2095,13 +2685,13 @@
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>133</v>
@@ -2113,7 +2703,7 @@
         <v>147</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>2</v>
@@ -2122,16 +2712,16 @@
         <v>29</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>133</v>
       </c>
       <c r="Q32" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="R32" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
@@ -2139,10 +2729,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" t="s">
         <v>172</v>
-      </c>
-      <c r="D33" t="s">
-        <v>173</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2151,22 +2741,22 @@
         <v>9</v>
       </c>
       <c r="I33" t="s">
+        <v>173</v>
+      </c>
+      <c r="J33" t="s">
         <v>174</v>
       </c>
-      <c r="J33" t="s">
+      <c r="M33" t="s">
+        <v>172</v>
+      </c>
+      <c r="N33" t="s">
         <v>175</v>
       </c>
-      <c r="M33" t="s">
-        <v>173</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="Q33" t="s">
         <v>176</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>177</v>
-      </c>
-      <c r="R33" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
@@ -2174,34 +2764,34 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" t="s">
         <v>179</v>
-      </c>
-      <c r="D34" t="s">
-        <v>180</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="H34" t="s">
+        <v>180</v>
+      </c>
+      <c r="I34" t="s">
         <v>181</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>182</v>
       </c>
-      <c r="J34" t="s">
+      <c r="M34" t="s">
+        <v>179</v>
+      </c>
+      <c r="N34" t="s">
         <v>183</v>
       </c>
-      <c r="M34" t="s">
-        <v>180</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="Q34" t="s">
         <v>184</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>185</v>
-      </c>
-      <c r="R34" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
@@ -2209,34 +2799,34 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" t="s">
         <v>187</v>
-      </c>
-      <c r="D35" t="s">
-        <v>188</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
       <c r="H35" t="s">
+        <v>188</v>
+      </c>
+      <c r="I35" t="s">
         <v>189</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>190</v>
       </c>
-      <c r="J35" t="s">
+      <c r="M35" t="s">
+        <v>187</v>
+      </c>
+      <c r="N35" t="s">
         <v>191</v>
       </c>
-      <c r="M35" t="s">
-        <v>188</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="Q35" t="s">
         <v>192</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="R35" t="s">
         <v>193</v>
-      </c>
-      <c r="R35" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
@@ -2244,10 +2834,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" t="s">
         <v>195</v>
-      </c>
-      <c r="D36" t="s">
-        <v>196</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -2256,28 +2846,28 @@
         <v>9</v>
       </c>
       <c r="H36" t="s">
+        <v>196</v>
+      </c>
+      <c r="I36" t="s">
         <v>197</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>198</v>
       </c>
-      <c r="J36" t="s">
+      <c r="M36" t="s">
+        <v>195</v>
+      </c>
+      <c r="N36" t="s">
         <v>199</v>
-      </c>
-      <c r="M36" t="s">
-        <v>196</v>
-      </c>
-      <c r="N36" t="s">
-        <v>200</v>
       </c>
       <c r="P36" t="s">
         <v>9</v>
       </c>
       <c r="Q36" t="s">
+        <v>200</v>
+      </c>
+      <c r="R36" t="s">
         <v>201</v>
-      </c>
-      <c r="R36" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
@@ -2285,10 +2875,10 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" t="s">
         <v>203</v>
-      </c>
-      <c r="D37" t="s">
-        <v>204</v>
       </c>
       <c r="E37">
         <v>4</v>
@@ -2297,28 +2887,28 @@
         <v>9</v>
       </c>
       <c r="H37" t="s">
+        <v>204</v>
+      </c>
+      <c r="I37" t="s">
         <v>205</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>206</v>
       </c>
-      <c r="J37" t="s">
+      <c r="M37" t="s">
+        <v>203</v>
+      </c>
+      <c r="N37" t="s">
         <v>207</v>
-      </c>
-      <c r="M37" t="s">
-        <v>204</v>
-      </c>
-      <c r="N37" t="s">
-        <v>208</v>
       </c>
       <c r="P37" t="s">
         <v>9</v>
       </c>
       <c r="Q37" t="s">
+        <v>208</v>
+      </c>
+      <c r="R37" t="s">
         <v>209</v>
-      </c>
-      <c r="R37" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
@@ -2326,31 +2916,31 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" t="s">
         <v>211</v>
-      </c>
-      <c r="D38" t="s">
-        <v>212</v>
       </c>
       <c r="E38">
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M38" t="s">
+        <v>211</v>
+      </c>
+      <c r="N38" t="s">
         <v>212</v>
       </c>
-      <c r="N38" t="s">
+      <c r="P38" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q38" t="s">
         <v>213</v>
       </c>
-      <c r="P38" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>214</v>
-      </c>
-      <c r="R38" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
@@ -2358,16 +2948,16 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" t="s">
         <v>216</v>
-      </c>
-      <c r="D39" t="s">
-        <v>217</v>
       </c>
       <c r="E39">
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>2</v>
@@ -2376,47 +2966,47 @@
         <v>147</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M39" t="s">
+        <v>216</v>
+      </c>
+      <c r="N39" t="s">
         <v>217</v>
       </c>
-      <c r="N39" t="s">
+      <c r="P39" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q39" t="s">
         <v>218</v>
       </c>
-      <c r="P39" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q39" t="s">
+      <c r="R39" t="s">
         <v>219</v>
-      </c>
-      <c r="R39" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H40" t="s">
+        <v>220</v>
+      </c>
+      <c r="I40" t="s">
+        <v>186</v>
+      </c>
+      <c r="J40" t="s">
         <v>221</v>
-      </c>
-      <c r="I40" t="s">
-        <v>187</v>
-      </c>
-      <c r="J40" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H41" t="s">
+        <v>222</v>
+      </c>
+      <c r="I41" t="s">
         <v>223</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>224</v>
       </c>
-      <c r="J41" t="s">
+      <c r="M41" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>226</v>
       </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -2440,13 +3030,13 @@
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q43" t="s">
         <v>109</v>
       </c>
       <c r="R43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
@@ -2474,7 +3064,7 @@
         <v>29</v>
       </c>
       <c r="N44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q44" t="s">
         <v>16</v>
@@ -2488,7 +3078,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F45" t="s">
         <v>31</v>
@@ -2497,13 +3087,13 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K45" t="s">
         <v>109</v>
       </c>
       <c r="M45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N45" t="s">
         <v>125</v>
@@ -2512,15 +3102,15 @@
         <v>126</v>
       </c>
       <c r="R45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -2529,39 +3119,39 @@
         <v>147</v>
       </c>
       <c r="I46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K46" t="s">
         <v>112</v>
       </c>
       <c r="M46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N46" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q46" t="s">
         <v>114</v>
       </c>
       <c r="R46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F47" t="s">
         <v>31</v>
       </c>
       <c r="H47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K47" t="s">
         <v>114</v>
@@ -2569,7 +3159,7 @@
     </row>
     <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:45" x14ac:dyDescent="0.25">
@@ -3157,11 +3747,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3194,16 +3784,16 @@
     <col min="41" max="41" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
@@ -3215,63 +3805,63 @@
         <v>12</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11" t="s">
         <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>167</v>
-      </c>
       <c r="B8" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>133</v>
       </c>
@@ -3279,54 +3869,410 @@
         <v>140</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>247</v>
-      </c>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>1</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="13">
+        <v>100</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="3">
+        <v>43100</v>
+      </c>
+      <c r="G16" s="13">
+        <v>100000</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="13"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" t="s">
+        <v>310</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" t="s">
+        <v>315</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" t="s">
+        <v>316</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>310</v>
+      </c>
+      <c r="D24" t="s">
+        <v>324</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="13"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>318</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>313</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F27" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>241</v>
-      </c>
+      <c r="B1" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>136</v>
       </c>
+      <c r="C2" s="4"/>
       <c r="G2" s="6"/>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>137</v>
       </c>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F3" s="8" t="s">
-        <v>242</v>
-      </c>
+      <c r="F3" s="13"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -3335,11 +4281,9 @@
       </c>
       <c r="C4" s="7"/>
       <c r="F4" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>152</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G4" s="6"/>
       <c r="I4" s="7" t="s">
         <v>135</v>
       </c>
@@ -3357,7 +4301,7 @@
         <v>140</v>
       </c>
       <c r="F5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G5" s="6"/>
     </row>
@@ -3369,7 +4313,7 @@
         <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -3384,7 +4328,7 @@
         <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G7" s="6"/>
     </row>
@@ -3397,11 +4341,9 @@
       </c>
       <c r="C9" s="7"/>
       <c r="F9" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>239</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="G9" s="6"/>
       <c r="I9" s="7" t="s">
         <v>133</v>
       </c>
@@ -3419,7 +4361,7 @@
         <v>140</v>
       </c>
       <c r="F10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" t="s">
@@ -3440,7 +4382,7 @@
         <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -3455,19 +4397,19 @@
         <v>144</v>
       </c>
       <c r="F12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>150</v>
@@ -3486,7 +4428,7 @@
         <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G14" s="6"/>
       <c r="I14" t="s">
@@ -3501,13 +4443,13 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G15" s="6"/>
       <c r="I15" t="s">
@@ -3522,16 +4464,16 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -3545,21 +4487,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AR16"/>
+  <dimension ref="B2:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9:S9"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="11.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="13" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="13"/>
@@ -3586,16 +4529,16 @@
     <col min="28" max="29" width="9.140625" style="13"/>
     <col min="30" max="30" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="12.42578125" style="13" customWidth="1"/>
-    <col min="32" max="33" width="9.140625" style="13"/>
-    <col min="34" max="34" width="12.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="12.140625" style="13" customWidth="1"/>
-    <col min="38" max="39" width="9.140625" style="13"/>
-    <col min="40" max="40" width="12.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.85546875" style="13" customWidth="1"/>
-    <col min="42" max="16384" width="9.140625" style="13"/>
+    <col min="32" max="34" width="9.140625" style="13"/>
+    <col min="35" max="35" width="12.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="12.140625" style="13" customWidth="1"/>
+    <col min="39" max="40" width="9.140625" style="13"/>
+    <col min="41" max="41" width="12.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.85546875" style="13" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>54</v>
       </c>
@@ -3605,20 +4548,8 @@
       <c r="P2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO2" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="2:44" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
@@ -3664,65 +4595,8 @@
       <c r="S3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="V3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB3" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF3" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ3" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL3" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM3" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ3" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="2:44" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>72</v>
       </c>
@@ -3765,59 +4639,8 @@
       <c r="S4" s="13">
         <v>160</v>
       </c>
-      <c r="V4" s="13">
-        <v>1</v>
-      </c>
-      <c r="W4" s="3">
-        <v>43100</v>
-      </c>
-      <c r="X4" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y4" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z4" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD4" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE4" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF4" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL4" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP4" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="2:44" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G5" s="13" t="s">
         <v>92</v>
       </c>
@@ -3851,93 +4674,28 @@
       <c r="S5" s="13">
         <v>100</v>
       </c>
-      <c r="V5" s="13">
-        <v>2</v>
-      </c>
-      <c r="W5" s="3">
-        <v>43101</v>
-      </c>
-      <c r="X5" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y5" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA5" s="13">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD5" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE5" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF5" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH5" s="13">
-        <v>2</v>
-      </c>
-      <c r="AI5" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ5" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK5" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AL5" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO5" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP5" s="13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>10</v>
@@ -3950,9 +4708,6 @@
       <c r="K8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="13" t="s">
-        <v>276</v>
-      </c>
       <c r="P8" s="12" t="s">
         <v>10</v>
       </c>
@@ -3963,258 +4718,597 @@
       <c r="S8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z8" s="12"/>
-      <c r="AD8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>60</v>
+        <v>293</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G9" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>2</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>14</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>277</v>
+        <v>115</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="Q9" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="R9" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="S9" s="13" t="s">
+      <c r="S9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="V9" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="W9" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH9" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI9" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK9" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AO9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP9" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR9" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="G10" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>121</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>122</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>282</v>
+        <v>121</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="S10" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="V10" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="W10" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y10" s="13" t="s">
+      <c r="R10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="AH10" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI10" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK10" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO10" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP10" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR10" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="L11" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="P11" s="13" t="s">
+      <c r="G11" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q11" s="30">
+        <v>123</v>
+      </c>
+      <c r="R11" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="Q11" s="13">
-        <v>123</v>
-      </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AH11" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI11" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK11" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO11" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP11" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR11" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="L12" s="13" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="L13" s="13" t="s">
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="L14" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G15" s="13" t="s">
-        <v>64</v>
+        <v>277</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>129</v>
       </c>
+      <c r="J15" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="K15" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="L15" s="13" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="16" spans="2:44" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G16" s="13" t="s">
         <v>65</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>125</v>
       </c>
+      <c r="J16" s="13" t="s">
+        <v>65</v>
+      </c>
       <c r="K16" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="L16" s="13" t="s">
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" s="12" t="s">
         <v>65</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="V24" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="W24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="X24" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="13">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>43100</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="13">
+        <v>4</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="O25" s="13">
+        <v>1</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="V25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="W25" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="13">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3">
+        <v>43101</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="13">
+        <v>5</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="O26" s="13">
+        <v>2</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="S26" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="V26" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="W26" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="J29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="O29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="V29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="W29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="S30" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="V30" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="W30" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y30" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="S31" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="T31" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="V31" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="W31" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y31" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="V32" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="W32" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y32" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q33" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="R33" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="S33" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="S34" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q35" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="S35" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AK26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+    <sheetView topLeftCell="AB13" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4224,40 +5318,40 @@
     <col min="3" max="3" width="3" style="13" customWidth="1"/>
     <col min="4" max="5" width="2.5703125" style="13" customWidth="1"/>
     <col min="6" max="6" width="3.140625" style="13" customWidth="1"/>
-    <col min="7" max="12" width="9.140625" style="13"/>
-    <col min="13" max="13" width="3.85546875" style="13" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" style="13" customWidth="1"/>
-    <col min="15" max="15" width="2.85546875" style="13" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" style="13"/>
-    <col min="19" max="19" width="11.140625" style="13" customWidth="1"/>
-    <col min="20" max="25" width="9.140625" style="13"/>
-    <col min="26" max="26" width="3.85546875" style="13" customWidth="1"/>
-    <col min="27" max="28" width="9.140625" style="13"/>
-    <col min="29" max="29" width="10.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="13"/>
+    <col min="7" max="16" width="9.140625" style="13"/>
+    <col min="17" max="17" width="3.85546875" style="13" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="13" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" style="13" customWidth="1"/>
+    <col min="20" max="22" width="9.140625" style="13"/>
+    <col min="23" max="23" width="11.140625" style="13" customWidth="1"/>
+    <col min="24" max="29" width="9.140625" style="13"/>
+    <col min="30" max="30" width="3.85546875" style="13" customWidth="1"/>
+    <col min="31" max="32" width="9.140625" style="13"/>
+    <col min="33" max="33" width="10.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C1" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
       <c r="D2" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E3" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="F4" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>55</v>
       </c>
@@ -4269,63 +5363,67 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="15"/>
-      <c r="M6" s="14" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="15"/>
+      <c r="Q6" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
-      <c r="W6" s="15"/>
-      <c r="Z6" s="14" t="s">
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="15"/>
+      <c r="AD6" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
       <c r="AE6" s="16"/>
       <c r="AF6" s="16"/>
-      <c r="AG6" s="15"/>
-    </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="15"/>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="6"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
+      <c r="H7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="Q7" s="18"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
-      <c r="W7" s="6"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="6"/>
+      <c r="AD7" s="18"/>
       <c r="AE7" s="17"/>
       <c r="AF7" s="17"/>
-      <c r="AG7" s="6"/>
-    </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="6"/>
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="17" t="s">
         <v>77</v>
@@ -4333,87 +5431,108 @@
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="6"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="17" t="s">
+      <c r="H8" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="U8" s="17" t="s">
+        <v>249</v>
+      </c>
       <c r="V8" s="17"/>
-      <c r="W8" s="6"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="AD8" s="17" t="s">
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="6"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH8" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="AE8" s="19" t="s">
+      <c r="AI8" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AF8" s="17" t="s">
+      <c r="AJ8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="AG8" s="6"/>
-    </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AK8" s="6"/>
+    </row>
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="6"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="6"/>
-      <c r="M9" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="6"/>
-      <c r="Z9" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA9" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="6"/>
+      <c r="Q9" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="S9" s="20"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="6"/>
+      <c r="AD9" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE9" s="20" t="s">
+        <v>255</v>
+      </c>
       <c r="AF9" s="17"/>
-      <c r="AG9" s="6"/>
-    </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="6"/>
+    </row>
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -4421,102 +5540,114 @@
         <v>107</v>
       </c>
       <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="6"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="17" t="s">
-        <v>260</v>
-      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
       <c r="Q10" s="18"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="17"/>
+      <c r="R10" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="U10" s="18"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="17" t="s">
+        <v>257</v>
+      </c>
       <c r="AF10" s="17"/>
-      <c r="AG10" s="6"/>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="6"/>
+    </row>
+    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="6"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="O11" s="21"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="6"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="S11" s="21"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="6"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="17" t="s">
+        <v>260</v>
+      </c>
       <c r="AF11" s="17"/>
-      <c r="AG11" s="6"/>
-    </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="6"/>
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="6"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
-      <c r="K12" s="6"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="17" t="s">
+        <v>261</v>
+      </c>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="6"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="6"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="17" t="s">
+        <v>262</v>
+      </c>
       <c r="AF12" s="17"/>
-      <c r="AG12" s="6"/>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="6"/>
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17" t="s">
@@ -4525,35 +5656,39 @@
       <c r="E13" s="17"/>
       <c r="F13" s="6"/>
       <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
-      <c r="K13" s="6"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="R13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="17" t="s">
+        <v>263</v>
+      </c>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
+      <c r="U13" s="17" t="s">
+        <v>264</v>
+      </c>
       <c r="V13" s="17"/>
-      <c r="W13" s="6"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="6"/>
+      <c r="AD13" s="18"/>
       <c r="AE13" s="17"/>
       <c r="AF13" s="17"/>
-      <c r="AG13" s="6"/>
-    </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="6"/>
+    </row>
+    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B14" s="18"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -4561,80 +5696,88 @@
         <v>107</v>
       </c>
       <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
-      <c r="K14" s="6"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="R14" s="26" t="s">
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="V14" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="S14" s="26" t="s">
+      <c r="W14" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="T14" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="U14" s="26" t="s">
+      <c r="X14" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y14" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="V14" s="27" t="s">
+      <c r="Z14" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="W14" s="6"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
+      <c r="AA14" s="6"/>
+      <c r="AD14" s="18"/>
       <c r="AE14" s="17"/>
       <c r="AF14" s="17"/>
-      <c r="AG14" s="6"/>
-    </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="6"/>
+    </row>
+    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B15" s="18"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="6"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
       <c r="Q15" s="18"/>
-      <c r="R15" s="17"/>
+      <c r="R15" s="17" t="s">
+        <v>268</v>
+      </c>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AD15" s="18"/>
       <c r="AE15" s="17"/>
       <c r="AF15" s="17"/>
-      <c r="AG15" s="6"/>
-    </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="6"/>
+    </row>
+    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B16" s="18"/>
       <c r="C16" s="17" t="s">
         <v>94</v>
@@ -4643,33 +5786,37 @@
       <c r="E16" s="17"/>
       <c r="F16" s="6"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="6"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="6"/>
       <c r="Q16" s="18"/>
-      <c r="R16" s="17"/>
+      <c r="R16" s="17" t="s">
+        <v>269</v>
+      </c>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AD16" s="18"/>
       <c r="AE16" s="17"/>
       <c r="AF16" s="17"/>
-      <c r="AG16" s="6"/>
-    </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="6"/>
+    </row>
+    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -4679,30 +5826,34 @@
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
-      <c r="K17" s="6"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="6"/>
       <c r="Q17" s="18"/>
-      <c r="R17" s="17"/>
+      <c r="R17" s="17" t="s">
+        <v>270</v>
+      </c>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AD17" s="18"/>
       <c r="AE17" s="17"/>
       <c r="AF17" s="17"/>
-      <c r="AG17" s="6"/>
-    </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="6"/>
+    </row>
+    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B18" s="18"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -4712,30 +5863,34 @@
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
-      <c r="K18" s="6"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="6"/>
       <c r="Q18" s="18"/>
-      <c r="R18" s="17"/>
+      <c r="R18" s="17" t="s">
+        <v>271</v>
+      </c>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AD18" s="18"/>
       <c r="AE18" s="17"/>
       <c r="AF18" s="17"/>
-      <c r="AG18" s="6"/>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="6"/>
+    </row>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -4745,27 +5900,31 @@
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="6"/>
-      <c r="M19" s="18"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="6"/>
       <c r="Q19" s="18"/>
-      <c r="R19" s="17"/>
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AD19" s="18"/>
       <c r="AE19" s="17"/>
       <c r="AF19" s="17"/>
-      <c r="AG19" s="6"/>
-    </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="6"/>
+    </row>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -4775,27 +5934,31 @@
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
       <c r="J20" s="17"/>
-      <c r="K20" s="6"/>
-      <c r="M20" s="18"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="6"/>
       <c r="Q20" s="18"/>
-      <c r="R20" s="17"/>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AD20" s="18"/>
       <c r="AE20" s="17"/>
       <c r="AF20" s="17"/>
-      <c r="AG20" s="6"/>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="6"/>
+    </row>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -4805,28 +5968,32 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="6"/>
-      <c r="M21" s="18"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="6"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
+      <c r="O21" s="6"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="6"/>
+      <c r="AD21" s="18"/>
       <c r="AE21" s="17"/>
       <c r="AF21" s="17"/>
-      <c r="AG21" s="6"/>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="6"/>
+    </row>
+    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -4836,28 +6003,32 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
-      <c r="K22" s="6"/>
-      <c r="M22" s="18"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="O22" s="6"/>
+      <c r="Q22" s="18"/>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
       <c r="U22" s="17"/>
       <c r="V22" s="17"/>
-      <c r="W22" s="6"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="6"/>
+      <c r="AD22" s="18"/>
       <c r="AE22" s="17"/>
       <c r="AF22" s="17"/>
-      <c r="AG22" s="6"/>
-    </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="6"/>
+    </row>
+    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -4867,28 +6038,32 @@
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
-      <c r="K23" s="6"/>
-      <c r="M23" s="18"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="O23" s="6"/>
+      <c r="Q23" s="18"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
       <c r="U23" s="17"/>
       <c r="V23" s="17"/>
-      <c r="W23" s="6"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
-      <c r="AD23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="6"/>
+      <c r="AD23" s="18"/>
       <c r="AE23" s="17"/>
       <c r="AF23" s="17"/>
-      <c r="AG23" s="6"/>
-    </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="6"/>
+    </row>
+    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -4898,28 +6073,32 @@
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
-      <c r="K24" s="6"/>
-      <c r="M24" s="18"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="O24" s="6"/>
+      <c r="Q24" s="18"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
       <c r="U24" s="17"/>
       <c r="V24" s="17"/>
-      <c r="W24" s="6"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="6"/>
+      <c r="AD24" s="18"/>
       <c r="AE24" s="17"/>
       <c r="AF24" s="17"/>
-      <c r="AG24" s="6"/>
-    </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="6"/>
+    </row>
+    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -4929,28 +6108,32 @@
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="6"/>
-      <c r="M25" s="18"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="O25" s="6"/>
+      <c r="Q25" s="18"/>
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
       <c r="T25" s="17"/>
       <c r="U25" s="17"/>
       <c r="V25" s="17"/>
-      <c r="W25" s="6"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="6"/>
+      <c r="AD25" s="18"/>
       <c r="AE25" s="17"/>
       <c r="AF25" s="17"/>
-      <c r="AG25" s="6"/>
-    </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="6"/>
+    </row>
+    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
@@ -4960,41 +6143,482 @@
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
-      <c r="K26" s="24"/>
-      <c r="M26" s="22"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
       <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
+      <c r="O26" s="24"/>
+      <c r="Q26" s="22"/>
       <c r="R26" s="23"/>
       <c r="S26" s="23"/>
       <c r="T26" s="23"/>
       <c r="U26" s="23"/>
       <c r="V26" s="23"/>
-      <c r="W26" s="24"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="23"/>
+      <c r="AA26" s="24"/>
+      <c r="AD26" s="22"/>
       <c r="AE26" s="23"/>
       <c r="AF26" s="23"/>
-      <c r="AG26" s="24"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B5:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="3.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="D9" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="D12" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="18"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" t="s">
+        <v>334</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
+        <v>326</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F16">
+        <v>1234567</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="D17" t="s">
+        <v>327</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="F17">
+        <v>2345678</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>